--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/seleniumTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/kwanjae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74077498-3BB9-844A-810D-60D3EB0B2239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EF4A05-0E12-1C4E-8759-EC9ECF368538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28780" yWindow="500" windowWidth="22040" windowHeight="14340" xr2:uid="{58231C45-CDD6-7E4F-8E54-D7201DB8E37A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>계정과목*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,26 @@
   </si>
   <si>
     <t>(테스트케이스1)기타등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(입력가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(검색해서더블클릭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(없어도됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,18 +642,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADC2F1-C95F-9348-81AF-8625AB1819A6}">
-  <dimension ref="B1:Q4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -683,7 +703,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -718,7 +741,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -804,15 +830,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6D2C97-AA2D-424D-B5B3-CEA25D0C784A}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -833,6 +859,32 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/kwanjae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EF4A05-0E12-1C4E-8759-EC9ECF368538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AC090EA-A616-FD4C-9E4D-96A6C7C78A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28780" yWindow="500" windowWidth="22040" windowHeight="14340" xr2:uid="{58231C45-CDD6-7E4F-8E54-D7201DB8E37A}"/>
   </bookViews>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행사비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생지원비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,28 @@
   </si>
   <si>
     <t>(없어도됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행사비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(시무식경비)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,6 +315,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,11 +353,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +680,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -716,11 +751,11 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -755,10 +790,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -776,7 +811,7 @@
         <v>1424000</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -866,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/kwanjae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AC090EA-A616-FD4C-9E4D-96A6C7C78A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32494395-8B56-3A4F-93AB-7F2D029E35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28780" yWindow="500" windowWidth="22040" windowHeight="14340" xr2:uid="{58231C45-CDD6-7E4F-8E54-D7201DB8E37A}"/>
   </bookViews>
@@ -268,25 +268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>행사비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(시무식경비)</t>
-    </r>
+    <t>(행사비)시무식경비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,13 +302,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -360,7 +335,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,7 +655,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/kwanjae/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AC090EA-A616-FD4C-9E4D-96A6C7C78A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28780" yWindow="500" windowWidth="22040" windowHeight="14340" xr2:uid="{58231C45-CDD6-7E4F-8E54-D7201DB8E37A}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="결의내역" sheetId="1" r:id="rId1"/>
@@ -18,254 +12,183 @@
     <sheet name="세금계산" sheetId="3" r:id="rId3"/>
     <sheet name="기타소득" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>계정과목*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관리코드1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관리코드2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>귀속부서*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예산부서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>증빙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>외화구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원인계정과목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지출(차변)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수입(대변)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적요사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세세부PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주제어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관재팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지급구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지급처*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계좌번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예금주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>입금자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지급액*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연말정산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과세구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>발행일자*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거래처*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공급가액*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>세액*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계산서구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전자계산서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지급일자*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>성명*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소득구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민번호*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거주구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내외국인*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지출총액*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>재무팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등록금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사업코드*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결의서구분*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수입결의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신동인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(테스트케이스1)22년 1월 생수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정진평</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학생지원비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(테스트케이스1)기타등등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(자동)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(입력가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(검색해서더블클릭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(없어도됨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,8 +196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
       </rPr>
       <t>행사비</t>
     </r>
@@ -283,73 +204,659 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>(시무식경비)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(행사비)시무식경비</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>(행사비)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>시무식경비</t>
+    </r>
+  </si>
+  <si>
+    <t>(학생지원비)기타</t>
+  </si>
+  <si>
+    <t>(학생지원비)신문</t>
+  </si>
+  <si>
+    <t>일반도서</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="26">
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -357,26 +864,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="15" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Output" xfId="16" builtinId="21"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Total" xfId="20" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -676,299 +1221,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADC2F1-C95F-9348-81AF-8625AB1819A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15.750000"/>
+  <cols>
+    <col min="5" max="5" width="50.63000107" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
+    <row r="3" spans="1:17" ht="17.250000">
+      <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>1423000</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0">
         <v>1424000</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="0" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF4928-F36B-BF4E-BC2A-D4DD7546216A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15.750000"/>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6D2C97-AA2D-424D-B5B3-CEA25D0C784A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15.750000"/>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C207143-B4BE-7446-93D0-42E8DA05A005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15.750000"/>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/hans/workspace/kwanjae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4708B2C-B9E2-6746-8D06-A8961EF9835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBF4C6B-936B-9143-BCC6-FC68B96F0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="25760" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="결의내역" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,19 @@
     <sheet name="세금계산" sheetId="3" r:id="rId3"/>
     <sheet name="기타소득" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -179,9 +191,6 @@
   </si>
   <si>
     <t>(자동)</t>
-  </si>
-  <si>
-    <t>(입력가능)</t>
   </si>
   <si>
     <t>(검색해서더블클릭)</t>
@@ -214,12 +223,19 @@
   <si>
     <t>일반도서</t>
   </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,9 +243,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,6 +272,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,6 +280,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="맑은 고딕"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,21 +311,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,146 +658,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="50.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="E1" s="1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>1423000</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>1423000</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -769,7 +813,7 @@
   <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -801,7 +845,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -809,19 +853,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
@@ -839,19 +887,20 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6">
+        <v>44623</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -860,14 +909,14 @@
         <v>51</v>
       </c>
       <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -913,7 +962,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
